--- a/_Out/NFDataCfg/Excel/HttpServer.xlsx
+++ b/_Out/NFDataCfg/Excel/HttpServer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -702,13 +702,13 @@
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="b">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -716,13 +716,13 @@
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -730,13 +730,13 @@
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -744,13 +744,13 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -758,13 +758,13 @@
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="b">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -772,13 +772,13 @@
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="b">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -786,13 +786,13 @@
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="b">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
     </row>
